--- a/input_files/UC_case_study_5bus_network_B.xlsx
+++ b/input_files/UC_case_study_5bus_network_B.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="-440" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Bus index" sheetId="5" r:id="rId1"/>
@@ -192,9 +192,6 @@
     <t>Bubble SEN Wind 2014-2045_0910refyr.csv</t>
   </si>
   <si>
-    <t>Bubble NEN Wind 2014-2045_0910refyr.csv</t>
-  </si>
-  <si>
     <t>CAN Solar PV.csv</t>
   </si>
   <si>
@@ -208,6 +205,9 @@
   </si>
   <si>
     <t>Node 2 includes busses 1 &amp; 2 (node numbering chosen to match bus numbers for simplicity)</t>
+  </si>
+  <si>
+    <t>Bubble HUN Wind 2014-2045_0910refyr.csv</t>
   </si>
 </sst>
 </file>
@@ -217,12 +217,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -249,8 +250,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,6 +270,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDE9D9"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -288,7 +303,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="645">
+  <cellStyleXfs count="657">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -934,8 +949,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -962,8 +989,14 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="645">
+  <cellStyles count="657">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1286,6 +1319,12 @@
     <cellStyle name="Followed Hyperlink" xfId="640" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="642" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="644" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="646" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="648" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="650" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="652" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="654" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="656" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1608,6 +1647,12 @@
     <cellStyle name="Hyperlink" xfId="639" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="641" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="643" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="645" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="647" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="649" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="651" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="653" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="655" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1939,8 +1984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1984,8 +2029,8 @@
       <c r="C2" s="5">
         <v>0</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>56</v>
+      <c r="D2" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>41</v>
@@ -2005,7 +2050,7 @@
         <v>55</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2022,7 +2067,7 @@
         <v>42</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2036,10 +2081,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2072,10 +2117,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2089,7 +2134,7 @@
     <col min="7" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1">
+    <row r="1" spans="1:7" s="4" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2109,7 +2154,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2117,20 +2162,21 @@
         <v>2</v>
       </c>
       <c r="C2" s="9">
-        <f t="shared" ref="C2:C8" si="0">(PI()/6)/(E2/100)*D2</f>
-        <v>1.4959965017094252E-2</v>
+        <f>(PI()/12)/(E2/100)*D2</f>
+        <v>1.3089969389957471E-2</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
       </c>
       <c r="E2" s="5">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="F2" s="5">
         <v>0</v>
       </c>
+      <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -2138,20 +2184,21 @@
         <v>3</v>
       </c>
       <c r="C3" s="9">
-        <f t="shared" si="0"/>
-        <v>1.4959965017094252E-2</v>
+        <f>(PI()/12)/(E3/100)*D3</f>
+        <v>1.3089969389957471E-2</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
       </c>
       <c r="E3" s="5">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="F3" s="5">
         <v>0</v>
       </c>
+      <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -2159,20 +2206,20 @@
         <v>3</v>
       </c>
       <c r="C4" s="9">
-        <f t="shared" si="0"/>
-        <v>1.8699956271367814E-2</v>
+        <f t="shared" ref="C4:C8" si="0">(PI()/6)/(E4/100)*D4</f>
+        <v>1.9392547244381438E-2</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
       </c>
       <c r="E4" s="5">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="F4" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -2180,20 +2227,21 @@
         <v>4</v>
       </c>
       <c r="C5" s="9">
-        <f t="shared" si="0"/>
-        <v>2.0943951023931952E-2</v>
+        <f>(PI()/3)/(E5/100)*D5</f>
+        <v>5.8177641733144311E-2</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
       </c>
       <c r="E5" s="5">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="F5" s="5">
         <v>0</v>
       </c>
+      <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -2202,19 +2250,19 @@
       </c>
       <c r="C6" s="9">
         <f t="shared" si="0"/>
-        <v>1.0471975511965976E-2</v>
+        <v>1.0908307824964559E-2</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
       </c>
       <c r="E6" s="5">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="F6" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -2235,7 +2283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -2244,13 +2292,13 @@
       </c>
       <c r="C8" s="9">
         <f t="shared" si="0"/>
-        <v>1.1635528346628862E-2</v>
+        <v>1.1382582078223888E-2</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
       </c>
       <c r="E8" s="5">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="F8" s="5">
         <v>0</v>
@@ -2271,7 +2319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
@@ -2323,7 +2371,7 @@
         <v>50</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6">
